--- a/docs/data/data_overview.xlsx
+++ b/docs/data/data_overview.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="qn_data" sheetId="2" r:id="rId1"/>
     <sheet name="EEG_task_data" sheetId="3" r:id="rId2"/>
     <sheet name="ERP_data" sheetId="5" r:id="rId3"/>
     <sheet name="EMT_data" sheetId="7" r:id="rId4"/>
-    <sheet name="ERP_Topo_Face1" sheetId="8" r:id="rId5"/>
-    <sheet name="ERP_Topo_Face2" sheetId="10" r:id="rId6"/>
-    <sheet name="ERP_Traj_Face1" sheetId="9" r:id="rId7"/>
-    <sheet name="ERP_Traj_Face2" sheetId="11" r:id="rId8"/>
+    <sheet name="ERPs_Topo_Face1" sheetId="8" r:id="rId5"/>
+    <sheet name="ERPs_Topo_Face2" sheetId="10" r:id="rId6"/>
+    <sheet name="XX_ROI_XX_Face1" sheetId="9" r:id="rId7"/>
+    <sheet name="XX_ROI_XX_Face2" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="181">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -448,13 +448,6 @@
     <t>ROI_Average</t>
   </si>
   <si>
-    <t>Code for novelty of trial</t>
-  </si>
-  <si>
-    <t>10 = repeated
-11 = novel</t>
-  </si>
-  <si>
     <t>1 = happy
 2 = neutral
 3 = angry
@@ -570,12 +563,72 @@
   <si>
     <t>Code for novelty / emotions</t>
   </si>
+  <si>
+    <t>EEG_trial_loss</t>
+  </si>
+  <si>
+    <t>WM_scal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaled working memory score </t>
+  </si>
+  <si>
+    <t>Scoring range: 0-20</t>
+  </si>
+  <si>
+    <t>Information whether this trial was rejected during EEG preprocessing</t>
+  </si>
+  <si>
+    <t>0 = rejected
+1 = kept</t>
+  </si>
+  <si>
+    <t>contr_F1</t>
+  </si>
+  <si>
+    <t>contr_F2</t>
+  </si>
+  <si>
+    <t>contrast value of Face 1 for this trial</t>
+  </si>
+  <si>
+    <t>contrast value of Face 2 for this trial</t>
+  </si>
+  <si>
+    <t>range:0-1</t>
+  </si>
+  <si>
+    <t>contr_F1_scal</t>
+  </si>
+  <si>
+    <t>contr_F2_scal</t>
+  </si>
+  <si>
+    <t>scaled working memory score</t>
+  </si>
+  <si>
+    <t>scaled contrast value of Face 1</t>
+  </si>
+  <si>
+    <t>scaled contrast value of Face 2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4 = repeated happy trial
+5 = repeated neutral trial
+6 = repeated angry trial
+7 = novel happy trial
+8 = novel neutral trial
+9 = novel angry trial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,13 +647,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -626,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -642,10 +688,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,7 +977,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -972,7 +1014,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>70</v>
@@ -983,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1159,7 +1201,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1172,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1268,7 +1310,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>76</v>
@@ -1279,84 +1321,84 @@
         <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>167</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>68</v>
@@ -1364,13 +1406,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1380,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,13 +1456,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1410,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1432,7 +1493,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>108</v>
@@ -1443,7 +1504,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -1454,7 +1515,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>108</v>
@@ -1465,7 +1526,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>108</v>
@@ -1476,7 +1537,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>108</v>
@@ -1487,7 +1548,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>108</v>
@@ -1498,7 +1559,7 @@
         <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>108</v>
@@ -1509,7 +1570,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>108</v>
@@ -1520,7 +1581,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>108</v>
@@ -1531,7 +1592,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>108</v>
@@ -1542,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>108</v>
@@ -1553,7 +1614,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>108</v>
@@ -1564,7 +1625,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>108</v>
@@ -1575,7 +1636,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>108</v>
@@ -1586,7 +1647,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>108</v>
@@ -1597,7 +1658,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>108</v>
@@ -1707,7 +1768,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>68</v>
@@ -1718,7 +1779,7 @@
         <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>68</v>
@@ -1729,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>68</v>
@@ -1740,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>46</v>
@@ -1751,32 +1812,87 @@
         <v>57</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>18</v>
+      <c r="C37" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1802,22 +1918,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1835,7 +1951,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1846,7 +1962,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1857,11 +1973,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>118</v>
@@ -1872,7 +1988,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>70</v>
@@ -1894,7 +2010,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
@@ -1905,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
@@ -1916,7 +2032,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
@@ -1943,13 +2059,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
@@ -1959,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1967,7 +2083,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1983,7 +2099,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
@@ -1995,7 +2111,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -2043,7 +2159,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,13 +2170,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
@@ -2070,22 +2186,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2094,7 +2210,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
@@ -2106,7 +2222,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -2153,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2181,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -2192,21 +2308,21 @@
         <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,7 +2330,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -2222,10 +2338,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>108</v>
@@ -2233,10 +2349,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>108</v>
@@ -2244,10 +2360,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>108</v>
@@ -2263,7 +2379,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -2300,21 +2416,21 @@
         <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,7 +2438,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -2330,10 +2446,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>108</v>
@@ -2341,10 +2457,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>108</v>
@@ -2352,10 +2468,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>108</v>

--- a/docs/data/data_overview.xlsx
+++ b/docs/data/data_overview.xlsx
@@ -9,17 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="qn_data" sheetId="2" r:id="rId1"/>
     <sheet name="EEG_task_data" sheetId="3" r:id="rId2"/>
-    <sheet name="ERP_data" sheetId="5" r:id="rId3"/>
+    <sheet name="ERP_data_PO7_PO8" sheetId="5" r:id="rId3"/>
     <sheet name="EMT_data" sheetId="7" r:id="rId4"/>
-    <sheet name="ERPs_Topo_Face1" sheetId="8" r:id="rId5"/>
-    <sheet name="ERPs_Topo_Face2" sheetId="10" r:id="rId6"/>
-    <sheet name="XX_ROI_XX_Face1" sheetId="9" r:id="rId7"/>
-    <sheet name="XX_ROI_XX_Face2" sheetId="11" r:id="rId8"/>
+    <sheet name="ERPs_Topo_Face2" sheetId="10" r:id="rId5"/>
+    <sheet name="XX_ROI_XX_Face2" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -448,12 +446,6 @@
     <t>ROI_Average</t>
   </si>
   <si>
-    <t>1 = happy
-2 = neutral
-3 = angry
-4 = average across happy/angry</t>
-  </si>
-  <si>
     <t>PO3:Oz (P1/P3 only)</t>
   </si>
   <si>
@@ -622,6 +614,30 @@
 7 = novel happy trial
 8 = novel neutral trial
 9 = novel angry trial</t>
+  </si>
+  <si>
+    <t>P1_PO7</t>
+  </si>
+  <si>
+    <t>P1_PO8</t>
+  </si>
+  <si>
+    <t>Single-trial amplitude for P1 at electrode PO7</t>
+  </si>
+  <si>
+    <t>Single-trial amplitude for P1 at electrode PO8</t>
+  </si>
+  <si>
+    <t>P3_PO7</t>
+  </si>
+  <si>
+    <t>P3_PO8</t>
+  </si>
+  <si>
+    <t>Single-trial amplitude for P3 at electrode PO7</t>
+  </si>
+  <si>
+    <t>Single-trial amplitude for P3 at electrode PO8</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1014,7 +1030,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>70</v>
@@ -1025,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1201,7 +1217,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1244,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1310,7 +1326,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>76</v>
@@ -1321,7 +1337,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>77</v>
@@ -1329,13 +1345,13 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,7 +1370,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>70</v>
@@ -1368,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1392,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -1387,7 +1403,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>69</v>
@@ -1398,7 +1414,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>68</v>
@@ -1409,7 +1425,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>68</v>
@@ -1420,7 +1436,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
@@ -1428,10 +1444,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1490,10 +1506,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>108</v>
@@ -1501,10 +1517,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -1512,10 +1528,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>108</v>
@@ -1523,10 +1539,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>108</v>
@@ -1534,10 +1550,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>108</v>
@@ -1545,10 +1561,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>108</v>
@@ -1556,10 +1572,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>108</v>
@@ -1567,10 +1583,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>108</v>
@@ -1578,10 +1594,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>108</v>
@@ -1589,10 +1605,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>108</v>
@@ -1600,10 +1616,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>108</v>
@@ -1611,10 +1627,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>108</v>
@@ -1622,10 +1638,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>108</v>
@@ -1633,10 +1649,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>108</v>
@@ -1644,10 +1660,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>108</v>
@@ -1655,43 +1671,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>110</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>108</v>
@@ -1699,200 +1715,244 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>108</v>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>173</v>
+        <v>136</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -1977,7 +2037,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>118</v>
@@ -1988,7 +2048,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>70</v>
@@ -2010,7 +2070,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
@@ -2021,7 +2081,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
@@ -2032,7 +2092,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
@@ -2044,117 +2104,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2186,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -2198,10 +2147,10 @@
         <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2210,7 +2159,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
@@ -2222,7 +2171,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -2265,116 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2405,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
@@ -2416,7 +2256,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
@@ -2427,10 +2267,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,7 +2278,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>108</v>
@@ -2446,10 +2286,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>108</v>
@@ -2457,10 +2297,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>108</v>
@@ -2468,10 +2308,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>108</v>
